--- a/biology/Origine et évolution du vivant/Sur_la_terre_de_nos_ancêtres/Sur_la_terre_de_nos_ancêtres.xlsx
+++ b/biology/Origine et évolution du vivant/Sur_la_terre_de_nos_ancêtres/Sur_la_terre_de_nos_ancêtres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sur_la_terre_de_nos_anc%C3%AAtres</t>
+          <t>Sur_la_terre_de_nos_ancêtres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur la terre de nos ancêtres (Walking with Cavemen) est une émission de télévision documentaire britannique en quatre épisodes de 25 minutes diffusée du 27 mars au 1er avril 2003 sur la BBC. Un livre de même titre fut publié, du moins dans le monde anglophone, en accompagnement du documentaire télévisé.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sur_la_terre_de_nos_anc%C3%AAtres</t>
+          <t>Sur_la_terre_de_nos_ancêtres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'australopithèque à l'Homo sapiens, en passant par Paranthropus boisei, Homo habilis, Homo rudolfensis, Homo ergaster, Homo erectus, Homo heidelbergensis et Homo neanderthalensis, nos ancêtres ont évolué pendant 3,5 millions d'années pour donner notre espèce.  Cette émission raconte cette histoire étonnante et mouvementée.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sur_la_terre_de_nos_anc%C3%AAtres</t>
+          <t>Sur_la_terre_de_nos_ancêtres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
